--- a/Documentacao/EspecificacaoClasse/Especificação de Classe- Usuário.xlsx
+++ b/Documentacao/EspecificacaoClasse/Especificação de Classe- Usuário.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fivestars\Documentacao\EspecificacaoClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE2A7C-48C0-46AE-A6AE-EAAFC3ED8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990649EB-C9EA-439B-A6CE-F1DEB92B6997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,30 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>ESPECIFICAÇÃO DE CLASSE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.Descrição:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Classe que representa o cadastro do Usuário</t>
-    </r>
   </si>
   <si>
     <t>4.Atributos:</t>
@@ -148,9 +128,6 @@
   </si>
   <si>
     <t>email</t>
-  </si>
-  <si>
-    <t>Datanascimento</t>
   </si>
   <si>
     <t>foto</t>
@@ -217,16 +194,50 @@
       <t>Usuario</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.Descrição:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Classe que representa o cadastro de Usuários</t>
+    </r>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>dataNascimento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -293,88 +304,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD8D8D8"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -382,59 +347,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,6 +427,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D06DE2-C93E-092F-1D99-616268AEB390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="533400"/>
+          <a:ext cx="6953250" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,350 +693,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I999"/>
+  <dimension ref="H1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="184" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="30" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="8:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="14" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="8:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="8:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="8:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="21">
+        <v>6</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="21">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="9" spans="8:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="9">
+        <v>45</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="10" spans="8:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="9">
+        <v>100</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="L11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="15">
+        <v>45</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="15">
+        <v>11</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="15">
+        <v>45</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="15">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="L18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="M18" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5">
-        <v>45</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="5">
-        <v>100</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+      <c r="K20" s="15">
         <v>30</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="18">
-        <v>45</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="18">
-        <v>11</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="L20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="18">
-        <v>45</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="20" t="s">
+      <c r="M20" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="I22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="15">
         <v>10</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="18">
-        <v>30</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="L22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="18">
-        <v>10</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M22" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="8:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1965,50 +2017,65 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="I12:I13"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7197C0C-F2CC-469C-9926-CDD01EBF3FE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A4" colorId="9" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>